--- a/EL SALVADOR/Variables Género y Pueblos Indígenas ESV/Limitaciones Escuchar.xlsx
+++ b/EL SALVADOR/Variables Género y Pueblos Indígenas ESV/Limitaciones Escuchar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\OneDrive\Escritorio\Variables Género y Pueblos Indígenas ESV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\Variables Género y Pueblos Indígenas ESV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{881C8282-7D08-4754-B088-8DA3993E130B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D583E9-B657-4B81-9AA9-3B02F0001A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel (8)" sheetId="1" r:id="rId1"/>
@@ -823,7 +823,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1372,60 +1372,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFC5C5C5"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFC5C5C5"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -1512,6 +1458,60 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFC5C5C5"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFC5C5C5"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1526,13 +1526,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Limitaciones_Escuchar_ESV" displayName="Limitaciones_Escuchar_ESV" ref="A2:D1540" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A2:D1540"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Limitaciones_Escuchar_ESV" displayName="Limitaciones_Escuchar_ESV" ref="A2:D1540" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A2:D1540" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="SEXO" dataDxfId="5"/>
-    <tableColumn id="2" name="MUNICIPIO" dataDxfId="4"/>
-    <tableColumn id="3" name="OIR" dataDxfId="3"/>
-    <tableColumn id="4" name="POBLACIÓN" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SEXO" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MUNICIPIO" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="OIR" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="POBLACIÓN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1834,11 +1834,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D1540"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A709" workbookViewId="0">
-      <selection activeCell="B717" sqref="B717"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
